--- a/000.준비/00.개발일정/GITA_2022자바 기반 풀스택 개발자 데뷔 과정_주단위상세일정.xlsx
+++ b/000.준비/00.개발일정/GITA_2022자바 기반 풀스택 개발자 데뷔 과정_주단위상세일정.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Hi-Media 반응형 웹퍼블리셔 1회차 주별 상세일정" sheetId="1" r:id="rId1"/>
@@ -264,7 +259,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -629,6 +624,33 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -646,33 +668,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -737,7 +732,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -772,7 +767,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -984,7 +979,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -996,45 +991,45 @@
     <col min="5" max="5" width="11.125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.75" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="44.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="42.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:10" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="34.5" customHeight="1" thickBot="1">
       <c r="B4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="15" t="s">
         <v>20</v>
       </c>
@@ -1052,28 +1047,28 @@
       </c>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" ht="21" thickBot="1">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="18">
         <v>44805</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="18">
         <v>44806</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="20">
         <f t="shared" ref="F5:F12" si="0">DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="29" t="s">
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1081,13 +1076,13 @@
       <c r="B6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="18">
         <v>44809</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="18">
         <v>44812</v>
       </c>
       <c r="F6" s="6">
@@ -1109,13 +1104,13 @@
       <c r="B7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="18">
         <v>44817</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="18">
         <v>44820</v>
       </c>
       <c r="F7" s="6">
@@ -1137,13 +1132,13 @@
       <c r="B8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="18">
         <v>44823</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="18">
         <v>44827</v>
       </c>
       <c r="F8" s="6">
@@ -1165,13 +1160,13 @@
       <c r="B9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="18">
         <v>44830</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="18">
         <v>44834</v>
       </c>
       <c r="F9" s="6">
@@ -1193,13 +1188,13 @@
       <c r="B10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="18">
         <v>44837</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="18">
         <v>44841</v>
       </c>
       <c r="F10" s="6">
@@ -1221,13 +1216,13 @@
       <c r="B11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="18">
         <v>44844</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="18">
         <v>44848</v>
       </c>
       <c r="F11" s="6">
@@ -1241,7 +1236,7 @@
       <c r="I11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="24" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1249,13 +1244,13 @@
       <c r="B12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="18">
         <v>44851</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="18">
         <v>44855</v>
       </c>
       <c r="F12" s="6">
@@ -1268,10 +1263,10 @@
       <c r="H12" s="11">
         <v>44172</v>
       </c>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="30" t="s">
+      <c r="J12" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1279,13 +1274,13 @@
       <c r="B13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="18">
         <v>44858</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="18">
         <v>44862</v>
       </c>
       <c r="F13" s="6">
@@ -1301,7 +1296,7 @@
       <c r="I13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="30" t="s">
+      <c r="J13" s="24" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1310,13 +1305,13 @@
       <c r="B14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="18">
         <v>44865</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="18">
         <v>44869</v>
       </c>
       <c r="F14" s="6">
@@ -1332,7 +1327,7 @@
       <c r="I14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J14" s="30" t="s">
+      <c r="J14" s="24" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1340,13 +1335,13 @@
       <c r="B15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="18">
         <v>44872</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="18">
         <v>44876</v>
       </c>
       <c r="F15" s="6">
@@ -1370,13 +1365,13 @@
       <c r="B16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="18">
         <v>44879</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="18">
         <v>44883</v>
       </c>
       <c r="F16" s="6">
@@ -1398,13 +1393,13 @@
       <c r="B17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="18">
         <v>44886</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="18">
         <v>44890</v>
       </c>
       <c r="F17" s="6">
@@ -1428,13 +1423,13 @@
       <c r="B18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="18">
         <v>44893</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="18">
         <v>44897</v>
       </c>
       <c r="F18" s="6">
@@ -1458,13 +1453,13 @@
       <c r="B19" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="18">
         <v>44900</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="18">
         <v>44904</v>
       </c>
       <c r="F19" s="6">
@@ -1486,13 +1481,13 @@
       <c r="B20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="18">
         <v>44907</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="18">
         <v>44911</v>
       </c>
       <c r="F20" s="6">
@@ -1521,30 +1516,30 @@
       </c>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1555,8 +1550,9 @@
     <mergeCell ref="B23:J23"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/000.준비/00.개발일정/GITA_2022자바 기반 풀스택 개발자 데뷔 과정_주단위상세일정.xlsx
+++ b/000.준비/00.개발일정/GITA_2022자바 기반 풀스택 개발자 데뷔 과정_주단위상세일정.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[2021.09.02_웹퍼블리셔과정_박석호강사]\TOMCO6\000.준비\00.개발일정\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12285"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
   <si>
     <t>3주차</t>
   </si>
@@ -80,22 +85,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>필기시험일</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>일수</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>`````````````````````````````````</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">※ 휴일: </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>1주차</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -104,168 +97,187 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1차포폴 코딩, 테스트, 배포</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>jQuery 기본  / SVG 애니메이션</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차포폴 코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>jQuery 기본  / SVG 애니메이션</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>jQuery 응용, 깃허브(소스형상관리)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차포폴 선정 분석/설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>html5기본연습</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>html5/css3 기본연습</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통 포트폴리오(캐릭터소개)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통 포트폴리오(캐릭터소개)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통 포트폴리오(극장예고편)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통 포트폴리오(개인인트로사이트)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>html5/css3 기본연습, CSS 애니메이션</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>html5/css3 응용연습, 해상도, 웹폰트, 애니메이션</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>html5/css3 응용연습, 서버업로드하기(FTP)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>jQuery 응용/Form관련코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>html5/css3 응용연습/Javascript 기본 
- / CSS 애니메이션/ 그리드 레이아웃 연습</t>
+    <t>자바 기반 풀스택(프론트 &amp; 백엔드) 개발자 데뷔 과정 주별 상세일정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>교과목</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인씽킹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바 프로그래밍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발환경셋팅: VS Code + Server + GitHub
+HTML 기초 + CSS 기초</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 기본 및 응용연습
+도깨비 PJ + 미디어쿼리 + 와이어프레이밍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 기본 및 응용연습
+도깨비 PJ + 미디어쿼리 + 애니메이션</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발 인트로 / 환경셋팅 / 디자인 씽킹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹클라이언트 프로그래밍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹클라이언트 프로그래밍
+프론트엔드 프레임워크활용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀스택 기반 단일페이지 웹 어플개발</t>
+  </si>
+  <si>
+    <t>풀스택 기반 단일페이지 웹 어플개발
+자바 프로그래밍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바 프로그래밍
+데이터베이스 활용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스 활용
+웹프로그래밍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹프로그래밍
+스프링 기반 웹프로그래밍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링 기반 웹프로그래밍</t>
+  </si>
+  <si>
+    <t>프론트엔드 프레임워크활용
+풀스택 기반 단일페이지 웹 어플개발</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링 기반 웹프로그래밍
+풀스택 기반 단일페이지 웹 어플개발</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀스택 기반 단일페이지 웹 어플개발</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Javascript 기본 / CSS 애니메이션, 
-미디어쿼리</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SVG 애니메이션</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통 포트폴리오(개인인트로사이트)
-CGV응용사이트 제출(월)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>jQuery 응용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차포폴 UI디자인, 코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차포폴 선정, 자료수집, 분석/설계, 와이어프레이밍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차포폴 분석/설계, 프로토타이핑, UI디자인</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Javascript 기본,응용 / CSS 애니메이션, 
-미디어쿼리 / XD 프로토타이핑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Javascript 기본,응용 / CSS 애니메이션, 
-미디어쿼리 / XD 프로토타이핑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>자바 기반 풀스택(프론트 &amp; 백엔드) 개발자 데뷔 과정 주별 상세일정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>교과목</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>디자인씽킹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹클라이언트
-프로그래밍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>자바 프로그래밍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>자바 웹프로그래밍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>스프링 기반
-웹프로그래밍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터베이스 활용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터베이스 모델링</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>프론트엔드
-프레임워크활용</t>
+CGV PJ  / jQuery 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery 응용 / 자바기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 기본,응용 / jQuery 응용 / 자바기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바기본 / SQL연습</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차포폴 주제선정 / 분석</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차포폴 분석 / 설계 + 레이아웃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차포폴 메인구현 : 레이아웃 + 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차포폴 메인구현 : 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차포폴 메인구현 : 상세구현하기
++서브페이지구현포트폴리오 + JS코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차포폴 메인구현 : 서브구현하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차포폴 주제선정 / 분석</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차포폴 분석 / 설계 + 레이아웃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차포폴 메인구현 : 레이아웃 + 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차포폴 메인구현 : 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차포폴 메인구현 : 상세구현하기
++서브페이지구현포트폴리오 + JS코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차포폴 메인구현 : 서브구현하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차포폴 발표하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL연습 / JSP 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSP기본 / 스프링 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링 기본 / AWS기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>과제제출일</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
     <numFmt numFmtId="178" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;\ aaa&quot;요일&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,13 +342,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -364,7 +369,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -513,13 +518,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -528,7 +533,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -537,9 +542,20 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -550,6 +566,34 @@
         <color indexed="64"/>
       </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -572,7 +616,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -597,9 +641,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -609,21 +650,6 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -642,14 +668,50 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -663,11 +725,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -732,7 +791,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -767,7 +826,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -976,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -998,91 +1057,92 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:10" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
+      <c r="B2" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-    </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B4" s="14" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
+      <c r="B4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="15" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="3" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" ht="21" thickBot="1">
-      <c r="B5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="18">
+      <c r="C5" s="12">
         <v>44805</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="12">
         <v>44806</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="14">
         <f t="shared" ref="F5:F12" si="0">DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B6" s="9" t="s">
+      <c r="G5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="18">
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="35.1" customHeight="1">
+      <c r="B6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="22">
         <v>44809</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="22">
         <v>44812</v>
       </c>
       <c r="F6" s="6">
@@ -1090,27 +1150,27 @@
         <v>4</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="11">
-        <v>44130</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="35.1" customHeight="1">
+      <c r="B7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="22">
         <v>44817</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="22">
         <v>44820</v>
       </c>
       <c r="F7" s="6">
@@ -1118,27 +1178,27 @@
         <v>4</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B8" s="9" t="s">
+      <c r="I7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="35.1" customHeight="1">
+      <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="22">
         <v>44823</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="22">
         <v>44827</v>
       </c>
       <c r="F8" s="6">
@@ -1146,27 +1206,27 @@
         <v>5</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B9" s="9" t="s">
+      <c r="I8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="35.1" customHeight="1">
+      <c r="B9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="22">
         <v>44830</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="22">
         <v>44834</v>
       </c>
       <c r="F9" s="6">
@@ -1174,83 +1234,83 @@
         <v>5</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B10" s="9" t="s">
+      <c r="I9" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="35.1" customHeight="1">
+      <c r="B10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="18">
-        <v>44837</v>
+      <c r="C10" s="22">
+        <v>44838</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="22">
         <v>44841</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="33.75" thickBot="1">
-      <c r="B11" s="9" t="s">
+      <c r="I10" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="35.1" customHeight="1">
+      <c r="B11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="18">
-        <v>44844</v>
+      <c r="C11" s="22">
+        <v>44845</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="22">
         <v>44848</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="35.1" customHeight="1">
+      <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="33.75" thickBot="1">
-      <c r="B12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="18">
+      <c r="C12" s="22">
         <v>44851</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="22">
         <v>44855</v>
       </c>
       <c r="F12" s="6">
@@ -1258,29 +1318,27 @@
         <v>5</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="11">
-        <v>44172</v>
-      </c>
-      <c r="I12" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="33.75" thickBot="1">
-      <c r="B13" s="9" t="s">
+    </row>
+    <row r="13" spans="1:10" ht="35.1" customHeight="1">
+      <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="22">
         <v>44858</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="22">
         <v>44862</v>
       </c>
       <c r="F13" s="6">
@@ -1288,30 +1346,27 @@
         <v>5</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="11">
-        <v>44179</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="33.75" thickBot="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="35.1" customHeight="1">
+      <c r="B14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="22">
         <v>44865</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="22">
         <v>44869</v>
       </c>
       <c r="F14" s="6">
@@ -1319,29 +1374,27 @@
         <v>5</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="11">
-        <v>44186</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" s="24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="35.1" customHeight="1">
+      <c r="B15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="22">
         <v>44872</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="22">
         <v>44876</v>
       </c>
       <c r="F15" s="6">
@@ -1349,29 +1402,27 @@
         <v>5</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="11">
-        <v>44194</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="35.1" customHeight="1">
+      <c r="B16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="22">
         <v>44879</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="22">
         <v>44883</v>
       </c>
       <c r="F16" s="6">
@@ -1379,27 +1430,27 @@
         <v>5</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="35.1" customHeight="1">
+      <c r="B17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="22">
         <v>44886</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="22">
         <v>44890</v>
       </c>
       <c r="F17" s="6">
@@ -1407,29 +1458,27 @@
         <v>5</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="11">
-        <v>44209</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="35.1" customHeight="1">
+      <c r="B18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="22">
         <v>44893</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="22">
         <v>44897</v>
       </c>
       <c r="F18" s="6">
@@ -1437,29 +1486,25 @@
         <v>5</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="11">
-        <v>44218</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="30"/>
+    </row>
+    <row r="19" spans="2:10" ht="35.1" customHeight="1">
+      <c r="B19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="22">
         <v>44900</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="22">
         <v>44904</v>
       </c>
       <c r="F19" s="6">
@@ -1467,87 +1512,53 @@
         <v>5</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" spans="2:10" ht="35.1" customHeight="1" thickBot="1">
+      <c r="B20" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="25">
+        <v>44907</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="25">
+        <v>44907</v>
+      </c>
+      <c r="F20" s="27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="29"/>
+      <c r="I20" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="22.5">
-      <c r="B20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="18">
-        <v>44907</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="18">
-        <v>44911</v>
-      </c>
-      <c r="F20" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" s="11">
-        <v>44229</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="J20" s="31"/>
     </row>
     <row r="21" spans="2:10" ht="17.25" thickBot="1">
       <c r="C21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="4">
         <f>SUM(F5:F20)</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B23:J23"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/000.준비/00.개발일정/GITA_2022자바 기반 풀스택 개발자 데뷔 과정_주단위상세일정.xlsx
+++ b/000.준비/00.개발일정/GITA_2022자바 기반 풀스택 개발자 데뷔 과정_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
   <si>
     <t>3주차</t>
   </si>
@@ -118,153 +118,169 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>개발 인트로 / 환경셋팅 / 디자인 씽킹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹클라이언트 프로그래밍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹클라이언트 프로그래밍
+프론트엔드 프레임워크활용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀스택 기반 단일페이지 웹 어플개발</t>
+  </si>
+  <si>
+    <t>풀스택 기반 단일페이지 웹 어플개발
+자바 프로그래밍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바 프로그래밍
+데이터베이스 활용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스 활용
+웹프로그래밍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹프로그래밍
+스프링 기반 웹프로그래밍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링 기반 웹프로그래밍</t>
+  </si>
+  <si>
+    <t>프론트엔드 프레임워크활용
+풀스택 기반 단일페이지 웹 어플개발</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링 기반 웹프로그래밍
+풀스택 기반 단일페이지 웹 어플개발</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀스택 기반 단일페이지 웹 어플개발</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 기본,응용 / jQuery 응용 / 자바기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차포폴 주제선정 / 분석</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차포폴 분석 / 설계 + 레이아웃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차포폴 메인구현 : 레이아웃 + 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차포폴 메인구현 : 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차포폴 메인구현 : 상세구현하기
++서브페이지구현포트폴리오 + JS코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차포폴 메인구현 : 서브구현하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차포폴 주제선정 / 분석</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차포폴 분석 / 설계 + 레이아웃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차포폴 메인구현 : 레이아웃 + 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차포폴 메인구현 : 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차포폴 메인구현 : 상세구현하기
++서브페이지구현포트폴리오 + JS코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차포폴 메인구현 : 서브구현하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차포폴 발표하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSP기본 / 스프링 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버사이드 코딩구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링 기본 / AWS기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종발표</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타일정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/12 작품발표회</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/2-3 취업세미나</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>React 응용 / SQL연습 / JSP 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery 응용/ React기본 / 자바기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>React기본 / 자바기본 / SQL연습</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>HTML5 + CSS3 기본 및 응용연습
 도깨비 PJ + 미디어쿼리 + 와이어프레이밍</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>HTML5 + CSS3 기본 및 응용연습
-도깨비 PJ + 미디어쿼리 + 애니메이션</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발 인트로 / 환경셋팅 / 디자인 씽킹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹클라이언트 프로그래밍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹클라이언트 프로그래밍
-프론트엔드 프레임워크활용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>풀스택 기반 단일페이지 웹 어플개발</t>
-  </si>
-  <si>
-    <t>풀스택 기반 단일페이지 웹 어플개발
-자바 프로그래밍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>자바 프로그래밍
-데이터베이스 활용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터베이스 활용
-웹프로그래밍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹프로그래밍
-스프링 기반 웹프로그래밍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>스프링 기반 웹프로그래밍</t>
-  </si>
-  <si>
-    <t>프론트엔드 프레임워크활용
-풀스택 기반 단일페이지 웹 어플개발</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>스프링 기반 웹프로그래밍
-풀스택 기반 단일페이지 웹 어플개발</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>풀스택 기반 단일페이지 웹 어플개발</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Javascript 기본 / CSS 애니메이션, 
 CGV PJ  / jQuery 기본</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>jQuery 응용 / 자바기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Javascript 기본,응용 / jQuery 응용 / 자바기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>자바기본 / SQL연습</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차포폴 주제선정 / 분석</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차포폴 분석 / 설계 + 레이아웃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차포폴 메인구현 : 레이아웃 + 상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차포폴 메인구현 : 상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차포폴 메인구현 : 상세구현하기
-+서브페이지구현포트폴리오 + JS코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차포폴 메인구현 : 서브구현하기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차포폴 주제선정 / 분석</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차포폴 분석 / 설계 + 레이아웃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차포폴 메인구현 : 레이아웃 + 상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차포폴 메인구현 : 상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차포폴 메인구현 : 상세구현하기
-+서브페이지구현포트폴리오 + JS코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차포폴 메인구현 : 서브구현하기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차포폴 발표하기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQL연습 / JSP 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSP기본 / 스프링 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>스프링 기본 / AWS기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>과제제출일</t>
+    <t>HTML5 + CSS3 기본 및 응용연습
+Javascript 기본</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -343,7 +359,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,6 +384,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -423,14 +451,72 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="double">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -438,23 +524,23 @@
     <border>
       <left/>
       <right/>
-      <top style="double">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="double">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="double">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -463,11 +549,37 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -482,7 +594,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -497,7 +609,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -510,90 +622,6 @@
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -616,7 +644,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -629,7 +657,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -647,85 +675,100 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1037,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1050,127 +1093,127 @@
     <col min="5" max="5" width="11.125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.75" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" thickBot="1"/>
-    <row r="2" spans="1:10" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="33" t="s">
+    <row r="2" spans="1:10" ht="53.25" customHeight="1" thickBot="1">
+      <c r="B2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="26"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3"/>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="20" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="20" t="s">
+      <c r="H4" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="I4" s="40" t="s">
         <v>18</v>
       </c>
+      <c r="J4" s="41" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="32">
         <v>44805</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="32">
         <v>44806</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="34">
         <f t="shared" ref="F5:F12" si="0">DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17" t="s">
-        <v>29</v>
-      </c>
+      <c r="H5" s="36"/>
+      <c r="I5" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" ht="35.1" customHeight="1">
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="20">
         <v>44809</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="20">
         <v>44812</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="23" t="s">
+      <c r="G6" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="27" t="s">
         <v>26</v>
       </c>
+      <c r="J6" s="28"/>
     </row>
     <row r="7" spans="1:10" ht="35.1" customHeight="1">
       <c r="B7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="11">
         <v>44817</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="11">
         <v>44820</v>
       </c>
       <c r="F7" s="6">
@@ -1178,27 +1221,27 @@
         <v>4</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>27</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" ht="35.1" customHeight="1">
       <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="11">
         <v>44823</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="11">
         <v>44827</v>
       </c>
       <c r="F8" s="6">
@@ -1206,27 +1249,27 @@
         <v>5</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>28</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10" ht="35.1" customHeight="1">
       <c r="B9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="11">
         <v>44830</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="11">
         <v>44834</v>
       </c>
       <c r="F9" s="6">
@@ -1234,27 +1277,27 @@
         <v>5</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>41</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:10" ht="35.1" customHeight="1">
       <c r="B10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="11">
         <v>44838</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="11">
         <v>44841</v>
       </c>
       <c r="F10" s="6">
@@ -1262,27 +1305,27 @@
         <v>4</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>43</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:10" ht="35.1" customHeight="1">
       <c r="B11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="11">
         <v>44845</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="11">
         <v>44848</v>
       </c>
       <c r="F11" s="6">
@@ -1292,25 +1335,25 @@
       <c r="G11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>42</v>
-      </c>
+      <c r="H11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:10" ht="35.1" customHeight="1">
       <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="11">
         <v>44851</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="11">
         <v>44855</v>
       </c>
       <c r="F12" s="6">
@@ -1318,27 +1361,27 @@
         <v>5</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:10" ht="35.1" customHeight="1">
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="11">
         <v>44858</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="11">
         <v>44862</v>
       </c>
       <c r="F13" s="6">
@@ -1346,27 +1389,27 @@
         <v>5</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>58</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10" ht="35.1" customHeight="1">
       <c r="B14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="11">
         <v>44865</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="11">
         <v>44869</v>
       </c>
       <c r="F14" s="6">
@@ -1374,13 +1417,15 @@
         <v>5</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="29" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1388,13 +1433,13 @@
       <c r="B15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="11">
         <v>44872</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="11">
         <v>44876</v>
       </c>
       <c r="F15" s="6">
@@ -1402,27 +1447,27 @@
         <v>5</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>59</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="29"/>
     </row>
     <row r="16" spans="1:10" ht="35.1" customHeight="1">
       <c r="B16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="11">
         <v>44879</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="11">
         <v>44883</v>
       </c>
       <c r="F16" s="6">
@@ -1430,27 +1475,27 @@
         <v>5</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>59</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="29"/>
     </row>
     <row r="17" spans="2:10" ht="35.1" customHeight="1">
       <c r="B17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="11">
         <v>44886</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="11">
         <v>44890</v>
       </c>
       <c r="F17" s="6">
@@ -1458,27 +1503,27 @@
         <v>5</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="J17" s="23" t="s">
-        <v>60</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="29"/>
     </row>
     <row r="18" spans="2:10" ht="35.1" customHeight="1">
       <c r="B18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="11">
         <v>44893</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="11">
         <v>44897</v>
       </c>
       <c r="F18" s="6">
@@ -1486,25 +1531,27 @@
         <v>5</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" s="30"/>
+        <v>38</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="29"/>
     </row>
     <row r="19" spans="2:10" ht="35.1" customHeight="1">
       <c r="B19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="11">
         <v>44900</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="11">
         <v>44904</v>
       </c>
       <c r="F19" s="6">
@@ -1512,39 +1559,45 @@
         <v>5</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" s="30"/>
+        <v>38</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" spans="2:10" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="13">
         <v>44907</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="13">
         <v>44907</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="15">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G20" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="29"/>
-      <c r="I20" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="J20" s="31"/>
+      <c r="G20" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21" spans="2:10" ht="17.25" thickBot="1">
       <c r="C21" s="1"/>
@@ -1556,9 +1609,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="C4:E4"/>
     <mergeCell ref="B2:J2"/>
-    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/000.준비/00.개발일정/GITA_2022자바 기반 풀스택 개발자 데뷔 과정_주단위상세일정.xlsx
+++ b/000.준비/00.개발일정/GITA_2022자바 기반 풀스택 개발자 데뷔 과정_주단위상세일정.xlsx
@@ -644,7 +644,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -699,9 +699,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -717,21 +714,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -765,10 +750,46 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1081,7 +1102,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1100,136 +1121,136 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:10" ht="53.25" customHeight="1" thickBot="1">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="26"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
       <c r="J3"/>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="35" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="27">
         <v>44805</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="27">
         <v>44806</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="29">
         <f t="shared" ref="F5:F12" si="0">DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="33" t="s">
+      <c r="H5" s="31"/>
+      <c r="I5" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="37"/>
+      <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:10" ht="35.1" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="43">
         <v>44809</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="43">
         <v>44812</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="45">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="28"/>
+      <c r="J6" s="48"/>
     </row>
     <row r="7" spans="1:10" ht="35.1" customHeight="1">
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="19">
         <v>44817</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="19">
         <v>44820</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="17"/>
+      <c r="J7" s="41"/>
     </row>
     <row r="8" spans="1:10" ht="35.1" customHeight="1">
       <c r="B8" s="8" t="s">
@@ -1341,7 +1362,7 @@
       <c r="I11" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="29"/>
+      <c r="J11" s="24"/>
     </row>
     <row r="12" spans="1:10" ht="35.1" customHeight="1">
       <c r="B12" s="8" t="s">
@@ -1369,7 +1390,7 @@
       <c r="I12" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="J12" s="29"/>
+      <c r="J12" s="24"/>
     </row>
     <row r="13" spans="1:10" ht="35.1" customHeight="1">
       <c r="B13" s="8" t="s">
@@ -1397,7 +1418,7 @@
       <c r="I13" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J13" s="29"/>
+      <c r="J13" s="24"/>
     </row>
     <row r="14" spans="1:10" ht="35.1" customHeight="1">
       <c r="B14" s="8" t="s">
@@ -1425,7 +1446,7 @@
       <c r="I14" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="J14" s="29" t="s">
+      <c r="J14" s="24" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1455,7 +1476,7 @@
       <c r="I15" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="J15" s="29"/>
+      <c r="J15" s="24"/>
     </row>
     <row r="16" spans="1:10" ht="35.1" customHeight="1">
       <c r="B16" s="8" t="s">
@@ -1483,7 +1504,7 @@
       <c r="I16" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="29"/>
+      <c r="J16" s="24"/>
     </row>
     <row r="17" spans="2:10" ht="35.1" customHeight="1">
       <c r="B17" s="8" t="s">
@@ -1511,7 +1532,7 @@
       <c r="I17" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="J17" s="29"/>
+      <c r="J17" s="24"/>
     </row>
     <row r="18" spans="2:10" ht="35.1" customHeight="1">
       <c r="B18" s="8" t="s">
@@ -1539,7 +1560,7 @@
       <c r="I18" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J18" s="29"/>
+      <c r="J18" s="24"/>
     </row>
     <row r="19" spans="2:10" ht="35.1" customHeight="1">
       <c r="B19" s="8" t="s">
@@ -1567,7 +1588,7 @@
       <c r="I19" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J19" s="29"/>
+      <c r="J19" s="24"/>
     </row>
     <row r="20" spans="2:10" ht="35.1" customHeight="1" thickBot="1">
       <c r="B20" s="12" t="s">
@@ -1595,7 +1616,7 @@
       <c r="I20" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="J20" s="30" t="s">
+      <c r="J20" s="25" t="s">
         <v>58</v>
       </c>
     </row>
